--- a/Multivector Terminology.xlsx
+++ b/Multivector Terminology.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bud/Library/Mathematica/Applications/Clifford Packages/GeometricAlgebra (Bud)/Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BEE0AE-560A-2940-8ED5-E112833A8FD8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56EC2D-3F62-214B-A7DC-308F244D75BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25120" yWindow="4040" windowWidth="24680" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20920" yWindow="2600" windowWidth="24680" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (3)" sheetId="3" r:id="rId1"/>
+    <sheet name="Wikipedia" sheetId="4" r:id="rId1"/>
+    <sheet name="John Denker" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK585" localSheetId="0">'Sheet1 (3)'!$H$2</definedName>
-    <definedName name="OLE_LINK589" localSheetId="0">'Sheet1 (3)'!$E$10</definedName>
+    <definedName name="OLE_LINK585" localSheetId="1">'John Denker'!$H$2</definedName>
+    <definedName name="OLE_LINK585" localSheetId="0">Wikipedia!$H$2</definedName>
+    <definedName name="OLE_LINK589" localSheetId="1">'John Denker'!$E$10</definedName>
+    <definedName name="OLE_LINK589" localSheetId="0">Wikipedia!$E$10</definedName>
   </definedNames>
   <calcPr calcId="140000"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
   <si>
     <t>n</t>
   </si>
@@ -53,6 +56,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
       <t>n</t>
     </r>
@@ -68,6 +72,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
       <t>1</t>
     </r>
@@ -83,6 +88,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
       <t>2</t>
     </r>
@@ -98,6 +104,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -130,6 +137,7 @@
         <sz val="12"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -157,6 +165,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -177,6 +186,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -197,6 +207,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -247,21 +258,13 @@
     <t>Don't confuse vectors and blades:</t>
   </si>
   <si>
-    <t>Vectors, a.k.a. n-vectors, are 1-dimensional objects in n-space</t>
-  </si>
-  <si>
-    <t>Blades, a.k.a.p-blades, or blades of grade p,  are products of p vectors and can reside in any dimension n ≥ p</t>
-  </si>
-  <si>
-    <t>A general multivector, a.k.a. clif, in n-dimentions is a sum of a scalar (i.e., 0-blade), vector (1-blade), bivector (2-blade), …, n-blade</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1-Vector</t>
@@ -271,6 +274,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">       A</t>
@@ -289,6 +293,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = a</t>
@@ -299,6 +304,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -308,6 +314,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e</t>
@@ -318,6 +325,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1  </t>
@@ -334,6 +342,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Cambria Math"/>
+        <family val="1"/>
       </rPr>
       <t>0</t>
     </r>
@@ -355,6 +364,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2-Vector</t>
@@ -364,6 +374,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                                                        A</t>
@@ -382,6 +393,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> =  a</t>
@@ -392,6 +404,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -401,6 +414,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e</t>
@@ -411,6 +425,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -420,6 +435,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+ a</t>
@@ -430,6 +446,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -439,6 +456,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e</t>
@@ -449,6 +467,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -548,6 +567,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2-Vector</t>
@@ -557,6 +577,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                              A</t>
@@ -575,6 +596,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> =  a</t>
@@ -585,6 +607,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -594,6 +617,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e</t>
@@ -604,6 +628,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -613,6 +638,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>+ a</t>
@@ -623,6 +649,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -632,6 +659,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> e</t>
@@ -642,6 +670,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -932,6 +961,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n-Vector</t>
@@ -941,6 +971,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">             A</t>
@@ -951,6 +982,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -968,6 +1000,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> B</t>
@@ -978,6 +1011,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -995,6 +1029,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">  … , Z</t>
@@ -1005,6 +1040,7 @@
         <sz val="12"/>
         <color theme="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1035,6 +1071,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -1055,6 +1092,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -1075,6 +1113,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -1095,6 +1134,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -1115,6 +1155,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -1135,6 +1176,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>12</t>
@@ -1155,6 +1197,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -1175,6 +1218,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -1200,6 +1244,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>0</t>
@@ -1220,6 +1265,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -1240,6 +1286,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -1260,6 +1307,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -1280,6 +1328,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -1344,6 +1393,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>12</t>
@@ -1364,6 +1414,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>1</t>
@@ -1384,6 +1435,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>2</t>
@@ -1402,6 +1454,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">13 </t>
@@ -1420,6 +1473,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">1 </t>
@@ -1455,6 +1509,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">23 </t>
@@ -1473,6 +1528,7 @@
         <sz val="12"/>
         <color rgb="FF3366FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">2 </t>
@@ -1504,9 +1560,6 @@
     </r>
   </si>
   <si>
-    <t>Vectors and blades are Cap letters. All products of vectors are geometric products</t>
-  </si>
-  <si>
     <r>
       <t>B = A</t>
     </r>
@@ -1615,6 +1668,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>3</t>
@@ -1624,6 +1678,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> B</t>
@@ -1634,6 +1689,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">3 </t>
@@ -1652,6 +1708,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 3</t>
@@ -1676,6 +1733,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1685,6 +1743,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> B</t>
@@ -1695,6 +1754,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">n </t>
@@ -1713,6 +1773,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1728,6 +1789,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1737,6 +1799,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> B</t>
@@ -1747,6 +1810,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1765,6 +1829,7 @@
         <sz val="12"/>
         <color theme="6" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1780,20 +1845,742 @@
   </si>
   <si>
     <t>Blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n-Vector or Multivector </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                                          B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> =  a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  + a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + b</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">    C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> = c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + c</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  … , Z</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blade             (p-Blade)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A general multivector, a.k.a. clif, in n-dimentions is a sum of scalars (i.e., 0-blades), vectors (1-blades), bivectors (2-blades), …, n-blades</t>
+  </si>
+  <si>
+    <t>All products of vectors are geometric products</t>
+  </si>
+  <si>
+    <t>Vectors, a.k.a. n-vectors, are standard vectors in n-space</t>
+  </si>
+  <si>
+    <t>Blades, a.k.a.p-blades, or blades of grade p,  are products of p vectors where n ≥ p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="34">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="33">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1821,6 +2608,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -1828,6 +2616,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Cambria Math"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -1850,12 +2639,14 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1863,6 +2654,7 @@
       <sz val="12"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1870,12 +2662,14 @@
       <sz val="12"/>
       <color theme="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1883,6 +2677,7 @@
       <sz val="12"/>
       <color theme="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1890,12 +2685,14 @@
       <sz val="12"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="7"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1903,12 +2700,14 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1916,6 +2715,7 @@
       <sz val="12"/>
       <color theme="6" tint="-0.249977111117893"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1938,6 +2738,7 @@
       <sz val="12"/>
       <color rgb="FF3366FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2335,129 +3136,123 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2466,22 +3261,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2490,11 +3285,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -2842,15 +3646,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58C113-AB57-7C48-8E4D-759710CA02A5}">
-  <dimension ref="A1:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC99945E-C0BC-BD48-9E9E-3A32B9267433}">
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2891,7 +3695,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="23"/>
@@ -2915,12 +3719,12 @@
       </c>
     </row>
     <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="50" t="s">
-        <v>45</v>
+      <c r="A3" s="50"/>
+      <c r="B3" s="48" t="s">
+        <v>41</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>4</v>
@@ -2940,10 +3744,10 @@
       <c r="A4" s="23">
         <v>0</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="21" t="s">
@@ -2960,29 +3764,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="74">
+    <row r="5" spans="1:10" ht="57">
       <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>33</v>
+      <c r="C5" s="28"/>
+      <c r="D5" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="35" t="s">
-        <v>34</v>
+      <c r="H5" s="51" t="s">
+        <v>46</v>
       </c>
       <c r="I5" s="3"/>
-      <c r="J5" s="47"/>
+      <c r="J5" s="45"/>
     </row>
     <row r="6" spans="1:10" ht="36" customHeight="1">
       <c r="A6" s="12">
@@ -2995,15 +3799,15 @@
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="37" t="s">
-        <v>41</v>
+      <c r="E6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="35" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34">
@@ -3020,16 +3824,16 @@
       <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="38" t="s">
-        <v>43</v>
+      <c r="F7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="36" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="13" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="15"/>
@@ -3038,48 +3842,321 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="48"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:10" ht="37" thickBot="1">
       <c r="A9" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>19</v>
+        <v>32</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>47</v>
       </c>
       <c r="C9" s="24"/>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="41" t="s">
-        <v>44</v>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="58" thickBot="1">
-      <c r="A10" s="42"/>
-      <c r="B10" s="43" t="s">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="47" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D58C113-AB57-7C48-8E4D-759710CA02A5}">
+  <dimension ref="A1:J18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A2" sqref="A2"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" hidden="1" customHeight="1">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="2" customFormat="1">
+      <c r="A2" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23">
+        <v>0</v>
+      </c>
+      <c r="D2" s="9">
         <v>1</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="44" t="s">
+      <c r="E2" s="9">
+        <v>2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>3</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1">
+      <c r="A3" s="50"/>
+      <c r="B3" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="25"/>
+      <c r="H3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32" customHeight="1">
+      <c r="A4" s="23">
+        <v>0</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="74">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20"/>
+      <c r="H5" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" ht="36" customHeight="1">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="27"/>
+      <c r="H6" s="35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34">
+      <c r="A7" s="11">
+        <v>3</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="13" customHeight="1">
+      <c r="A8" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:10" ht="37" thickBot="1">
+      <c r="A9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="58" thickBot="1">
+      <c r="A10" s="40"/>
+      <c r="B10" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="46"/>
-      <c r="H10" s="49" t="s">
+      <c r="E10" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="44"/>
+      <c r="H10" s="47" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3090,7 +4167,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3098,13 +4175,13 @@
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3119,7 +4196,7 @@
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D17" s="4"/>
     </row>
@@ -3132,7 +4209,7 @@
   <mergeCells count="1">
     <mergeCell ref="A2:A3"/>
   </mergeCells>
-  <phoneticPr fontId="28" type="noConversion"/>
+  <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>

--- a/Multivector Terminology.xlsx
+++ b/Multivector Terminology.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bud/Library/Mathematica/Applications/Clifford Packages/GeometricAlgebra (Bud)/Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/Mathematica/GeometricAlgebra (Bud)/Package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD56EC2D-3F62-214B-A7DC-308F244D75BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA056D22-FDCF-AA4A-BC66-7534F0B10606}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20920" yWindow="2600" windowWidth="24680" windowHeight="19900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="62">
   <si>
     <t>n</t>
   </si>
@@ -1847,9 +1847,6 @@
     <t>Blade</t>
   </si>
   <si>
-    <t xml:space="preserve">n-Vector or Multivector </t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve"> A</t>
     </r>
@@ -2468,6 +2465,307 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blade             (p-Blade)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>A general multivector, a.k.a. clif, in n-dimentions is a sum of scalars (i.e., 0-blades), vectors (1-blades), bivectors (2-blades), …, n-blades</t>
+  </si>
+  <si>
+    <t>All products of vectors are geometric products</t>
+  </si>
+  <si>
+    <t>Vectors, a.k.a. n-vectors, are standard vectors in n-space</t>
+  </si>
+  <si>
+    <t>Blades, a.k.a.p-blades, or blades of grade p,  are products of p vectors where n ≥ p</t>
+  </si>
+  <si>
+    <r>
+      <t>B = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (from above)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from above)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(from above)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="7"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> (from above)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>T = A</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (from above)</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve"> A</t>
     </r>
     <r>
@@ -2539,48 +2837,608 @@
       </rPr>
       <t>n</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Blade             (p-Blade)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (follows pattern from left)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bivector        (2-Blade) (Product of two 1-blades</t>
+  </si>
+  <si>
+    <t>Trivector       (3-Blade) (Product of three 1-blades</t>
+  </si>
+  <si>
+    <t>n-Vector or Multivector  (Not same as an n-blade)</t>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (1-vector)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> +  a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                  (2 vector)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  +  a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> +  a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">13 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve">3  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> + a</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">23 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri (Body)"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>A general multivector, a.k.a. clif, in n-dimentions is a sum of scalars (i.e., 0-blades), vectors (1-blades), bivectors (2-blades), …, n-blades</t>
-  </si>
-  <si>
-    <t>All products of vectors are geometric products</t>
-  </si>
-  <si>
-    <t>Vectors, a.k.a. n-vectors, are standard vectors in n-space</t>
-  </si>
-  <si>
-    <t>Blades, a.k.a.p-blades, or blades of grade p,  are products of p vectors where n ≥ p</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF3366FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                               (3-vector)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2812,6 +3670,11 @@
       <vertAlign val="subscript"/>
       <sz val="12"/>
       <color rgb="FF3366FF"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -3145,7 +4008,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3291,14 +4154,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -3654,10 +4523,10 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
@@ -3670,7 +4539,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" hidden="1" customHeight="1">
+    <row r="1" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -3694,8 +4563,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="23"/>
@@ -3718,8 +4587,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="50"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="48" t="s">
         <v>41</v>
       </c>
@@ -3740,7 +4609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" customHeight="1">
+    <row r="4" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>0</v>
       </c>
@@ -3764,7 +4633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57">
+    <row r="5" spans="1:10" ht="70" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -3773,49 +4642,49 @@
       </c>
       <c r="C5" s="28"/>
       <c r="D5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="G5" s="20"/>
-      <c r="H5" s="51" t="s">
-        <v>46</v>
+      <c r="H5" s="49" t="s">
+        <v>55</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1">
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C6" s="17"/>
       <c r="D6" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>36</v>
+      <c r="E6" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>51</v>
       </c>
       <c r="G6" s="27"/>
-      <c r="H6" s="35" t="s">
-        <v>37</v>
+      <c r="H6" s="52" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="14" t="s">
@@ -3824,15 +4693,15 @@
       <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>38</v>
+      <c r="F7" s="14" t="s">
+        <v>52</v>
       </c>
       <c r="G7" s="32"/>
-      <c r="H7" s="36" t="s">
-        <v>39</v>
+      <c r="H7" s="53" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" customHeight="1">
+    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>21</v>
       </c>
@@ -3845,12 +4714,12 @@
       <c r="H8" s="36"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:10" ht="37" thickBot="1">
+    <row r="9" spans="1:10" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="38" t="s">
@@ -3867,43 +4736,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="58" thickBot="1">
+    <row r="10" spans="1:10" ht="75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="42" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="47" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
@@ -3930,7 +4799,7 @@
       <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
@@ -3943,7 +4812,7 @@
     <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" hidden="1" customHeight="1">
+    <row r="1" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -3967,8 +4836,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="2" customFormat="1">
-      <c r="A2" s="49" t="s">
+    <row r="2" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="23"/>
@@ -3991,8 +4860,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1">
-      <c r="A3" s="50"/>
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="51"/>
       <c r="B3" s="48" t="s">
         <v>41</v>
       </c>
@@ -4013,7 +4882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="32" customHeight="1">
+    <row r="4" spans="1:10" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23">
         <v>0</v>
       </c>
@@ -4037,7 +4906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="74">
+    <row r="5" spans="1:10" ht="74" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -4061,7 +4930,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="1:10" ht="36" customHeight="1">
+    <row r="6" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -4083,7 +4952,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34">
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>3</v>
       </c>
@@ -4105,7 +4974,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="13" customHeight="1">
+    <row r="8" spans="1:10" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>21</v>
       </c>
@@ -4118,7 +4987,7 @@
       <c r="H8" s="36"/>
       <c r="I8" s="46"/>
     </row>
-    <row r="9" spans="1:10" ht="37" thickBot="1">
+    <row r="9" spans="1:10" ht="37" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>32</v>
       </c>
@@ -4140,7 +5009,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="58" thickBot="1">
+    <row r="10" spans="1:10" ht="58" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="41" t="s">
         <v>1</v>
@@ -4160,47 +5029,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="2:4">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="2:4">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>24</v>
       </c>
